--- a/SCN_Erogazioni_Tipologia.xlsx
+++ b/SCN_Erogazioni_Tipologia.xlsx
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="0" t="b">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="55">
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="0" t="b">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="0" t="b">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" s="0" t="b">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="113">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="0" t="b">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="127">
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="0" t="b">
         <v>0</v>
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="128">
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="0" t="b">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="129">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="0" t="b">
         <v>0</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="130">
@@ -7248,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" s="0" t="b">
         <v>0</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="M160" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="161">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" s="0" t="b">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="M161" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="162">
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" s="0" t="b">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="M162" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="163">
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" s="0" t="b">
         <v>0</v>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="M164" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="165">
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" s="0" t="b">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="M165" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="166">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" s="0" t="b">
         <v>0</v>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="M181" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="182">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="0" t="b">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M221" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="222">
@@ -11250,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="J253" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K253" s="0" t="b">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="I255" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="0" t="b">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="M255" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="256">
@@ -11419,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="I257" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" s="0" t="b">
         <v>0</v>
@@ -11431,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="M257" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="258">
@@ -11465,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="J258" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K258" s="0" t="b">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>1</v>
       </c>
       <c r="J260" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K260" s="0" t="b">
         <v>0</v>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="I261" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" s="0" t="b">
         <v>0</v>
@@ -11603,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="M261" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="262">
@@ -11680,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="J263" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K263" s="0" t="b">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>1</v>
       </c>
       <c r="J265" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K265" s="0" t="b">
         <v>0</v>
@@ -11852,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="J267" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K267" s="0" t="b">
         <v>0</v>
@@ -11938,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="J269" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269" s="0" t="b">
         <v>0</v>
@@ -12150,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="I274" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" s="0" t="b">
         <v>0</v>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="M274" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="275">
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" s="0" t="b">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="M275" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="276">
@@ -12279,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="I277" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" s="0" t="b">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="M277" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="278">
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" s="0" t="b">
         <v>0</v>
@@ -12334,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="M278" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="279">
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" s="0" t="b">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="M282" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="283">
@@ -12580,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="I284" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" s="0" t="b">
         <v>0</v>
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="M284" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="285">
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="I287" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" s="0" t="b">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="M287" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="288">
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="I289" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" s="0" t="b">
         <v>0</v>
@@ -12807,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="M289" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="290">
@@ -13096,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" s="0" t="b">
         <v>0</v>
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="M296" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="297">
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" s="0" t="b">
         <v>0</v>
@@ -13194,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="M298" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="299">
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="I310" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" s="0" t="b">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="M310" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="311">
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" s="0" t="b">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="M311" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="312">
@@ -13784,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="I312" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312" s="0" t="b">
         <v>0</v>
@@ -13796,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="M312" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="313">
@@ -13830,7 +13830,7 @@
         <v>1</v>
       </c>
       <c r="J313" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K313" s="0" t="b">
         <v>0</v>
@@ -13873,7 +13873,7 @@
         <v>1</v>
       </c>
       <c r="J314" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K314" s="0" t="b">
         <v>0</v>
@@ -13913,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="I315" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J315" s="0" t="b">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="M315" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="316">
@@ -13959,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="J316" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K316" s="0" t="b">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="I317" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J317" s="0" t="b">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="M317" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="318">
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="J318" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K318" s="0" t="b">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="I320" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" s="0" t="b">
         <v>0</v>
@@ -14140,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="M320" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="321">
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="I321" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321" s="0" t="b">
         <v>0</v>
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="M321" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="322">
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="J322" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K322" s="0" t="b">
         <v>0</v>
@@ -18858,7 +18858,7 @@
         <v>0</v>
       </c>
       <c r="I430" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J430" s="0" t="b">
         <v>0</v>
@@ -18870,7 +18870,7 @@
         <v>0</v>
       </c>
       <c r="M430" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="431">
@@ -19116,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="I436" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J436" s="0" t="b">
         <v>0</v>
@@ -19128,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="M436" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="437">
@@ -19159,7 +19159,7 @@
         <v>0</v>
       </c>
       <c r="I437" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J437" s="0" t="b">
         <v>0</v>
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="M437" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="438">
@@ -19202,7 +19202,7 @@
         <v>0</v>
       </c>
       <c r="I438" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J438" s="0" t="b">
         <v>0</v>
@@ -19214,7 +19214,7 @@
         <v>0</v>
       </c>
       <c r="M438" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="439">
@@ -19245,7 +19245,7 @@
         <v>0</v>
       </c>
       <c r="I439" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J439" s="0" t="b">
         <v>0</v>
@@ -19257,7 +19257,7 @@
         <v>0</v>
       </c>
       <c r="M439" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="440">
@@ -19288,7 +19288,7 @@
         <v>0</v>
       </c>
       <c r="I440" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J440" s="0" t="b">
         <v>0</v>
@@ -19300,7 +19300,7 @@
         <v>0</v>
       </c>
       <c r="M440" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="441">
@@ -19331,7 +19331,7 @@
         <v>0</v>
       </c>
       <c r="I441" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J441" s="0" t="b">
         <v>0</v>
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="M441" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="442">
@@ -19374,7 +19374,7 @@
         <v>0</v>
       </c>
       <c r="I442" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J442" s="0" t="b">
         <v>0</v>
@@ -19386,7 +19386,7 @@
         <v>0</v>
       </c>
       <c r="M442" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="443">
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
       <c r="I443" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J443" s="0" t="b">
         <v>0</v>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="M443" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="444">
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="I444" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J444" s="0" t="b">
         <v>0</v>
@@ -19472,7 +19472,7 @@
         <v>0</v>
       </c>
       <c r="M444" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="445">
@@ -20065,7 +20065,7 @@
         <v>1</v>
       </c>
       <c r="J458" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K458" s="0" t="b">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="I540" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J540" s="0" t="b">
         <v>0</v>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="M540" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="541">
@@ -26598,7 +26598,7 @@
         <v>0</v>
       </c>
       <c r="I610" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J610" s="0" t="b">
         <v>0</v>
@@ -26610,7 +26610,7 @@
         <v>0</v>
       </c>
       <c r="M610" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="611">
@@ -27501,7 +27501,7 @@
         <v>0</v>
       </c>
       <c r="I631" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J631" s="0" t="b">
         <v>0</v>
@@ -27513,7 +27513,7 @@
         <v>0</v>
       </c>
       <c r="M631" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="632">
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="I643" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J643" s="0" t="b">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="M643" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="644">
@@ -30296,7 +30296,7 @@
         <v>0</v>
       </c>
       <c r="I696" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J696" s="0" t="b">
         <v>0</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="M696" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="697">
@@ -30941,7 +30941,7 @@
         <v>0</v>
       </c>
       <c r="I711" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J711" s="0" t="b">
         <v>0</v>
@@ -30953,7 +30953,7 @@
         <v>0</v>
       </c>
       <c r="M711" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="712">
@@ -31156,7 +31156,7 @@
         <v>0</v>
       </c>
       <c r="I716" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J716" s="0" t="b">
         <v>0</v>
@@ -31168,7 +31168,7 @@
         <v>0</v>
       </c>
       <c r="M716" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="717">
@@ -39627,7 +39627,7 @@
         <v>0</v>
       </c>
       <c r="I913" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J913" s="0" t="b">
         <v>0</v>
@@ -39639,7 +39639,7 @@
         <v>0</v>
       </c>
       <c r="M913" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="914">
@@ -43414,7 +43414,7 @@
         <v>0</v>
       </c>
       <c r="J1001" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1001" s="0" t="b">
         <v>0</v>

--- a/SCN_Erogazioni_Tipologia.xlsx
+++ b/SCN_Erogazioni_Tipologia.xlsx
@@ -5657,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="I123" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="0" t="b">
         <v>0</v>
@@ -5700,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="I124" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="0" t="b">
         <v>0</v>
@@ -7377,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="I163" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" s="0" t="b">
         <v>0</v>
@@ -9054,10 +9054,10 @@
         <v>0</v>
       </c>
       <c r="I202" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" s="0" t="b">
         <v>0</v>
@@ -14386,10 +14386,10 @@
         <v>0</v>
       </c>
       <c r="I326" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J326" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K326" s="0" t="b">
         <v>0</v>
@@ -18772,10 +18772,10 @@
         <v>0</v>
       </c>
       <c r="I428" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J428" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K428" s="0" t="b">
         <v>0</v>

--- a/SCN_Erogazioni_Tipologia.xlsx
+++ b/SCN_Erogazioni_Tipologia.xlsx
@@ -26770,7 +26770,7 @@
         <v>0</v>
       </c>
       <c r="I614" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J614" s="0" t="b">
         <v>0</v>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="L614" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M614" s="0" t="b">
         <v>0</v>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="I693" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J693" s="0" t="b">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="L693" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M693" s="0" t="b">
         <v>0</v>
@@ -40272,7 +40272,7 @@
         <v>0</v>
       </c>
       <c r="I928" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J928" s="0" t="b">
         <v>0</v>
@@ -40281,7 +40281,7 @@
         <v>0</v>
       </c>
       <c r="L928" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M928" s="0" t="b">
         <v>0</v>
@@ -40315,7 +40315,7 @@
         <v>0</v>
       </c>
       <c r="I929" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J929" s="0" t="b">
         <v>0</v>
@@ -40324,7 +40324,7 @@
         <v>0</v>
       </c>
       <c r="L929" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M929" s="0" t="b">
         <v>0</v>
@@ -40358,7 +40358,7 @@
         <v>0</v>
       </c>
       <c r="I930" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J930" s="0" t="b">
         <v>0</v>
@@ -40367,7 +40367,7 @@
         <v>0</v>
       </c>
       <c r="L930" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M930" s="0" t="b">
         <v>0</v>
@@ -40401,7 +40401,7 @@
         <v>0</v>
       </c>
       <c r="I931" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J931" s="0" t="b">
         <v>0</v>
@@ -40410,7 +40410,7 @@
         <v>0</v>
       </c>
       <c r="L931" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M931" s="0" t="b">
         <v>0</v>
@@ -40444,7 +40444,7 @@
         <v>0</v>
       </c>
       <c r="I932" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J932" s="0" t="b">
         <v>0</v>
@@ -40453,7 +40453,7 @@
         <v>0</v>
       </c>
       <c r="L932" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M932" s="0" t="b">
         <v>0</v>
@@ -40487,7 +40487,7 @@
         <v>0</v>
       </c>
       <c r="I933" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J933" s="0" t="b">
         <v>0</v>
@@ -40496,7 +40496,7 @@
         <v>0</v>
       </c>
       <c r="L933" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M933" s="0" t="b">
         <v>0</v>
@@ -40530,7 +40530,7 @@
         <v>0</v>
       </c>
       <c r="I934" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J934" s="0" t="b">
         <v>0</v>
@@ -40539,7 +40539,7 @@
         <v>0</v>
       </c>
       <c r="L934" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M934" s="0" t="b">
         <v>0</v>
@@ -40573,7 +40573,7 @@
         <v>0</v>
       </c>
       <c r="I935" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J935" s="0" t="b">
         <v>0</v>
@@ -40582,7 +40582,7 @@
         <v>0</v>
       </c>
       <c r="L935" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M935" s="0" t="b">
         <v>0</v>
@@ -40616,7 +40616,7 @@
         <v>0</v>
       </c>
       <c r="I936" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J936" s="0" t="b">
         <v>0</v>
@@ -40625,7 +40625,7 @@
         <v>0</v>
       </c>
       <c r="L936" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M936" s="0" t="b">
         <v>0</v>
@@ -40659,7 +40659,7 @@
         <v>0</v>
       </c>
       <c r="I937" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J937" s="0" t="b">
         <v>0</v>
@@ -40668,7 +40668,7 @@
         <v>0</v>
       </c>
       <c r="L937" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M937" s="0" t="b">
         <v>0</v>
@@ -40702,7 +40702,7 @@
         <v>0</v>
       </c>
       <c r="I938" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J938" s="0" t="b">
         <v>0</v>
@@ -40711,7 +40711,7 @@
         <v>0</v>
       </c>
       <c r="L938" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M938" s="0" t="b">
         <v>0</v>
@@ -40745,7 +40745,7 @@
         <v>0</v>
       </c>
       <c r="I939" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J939" s="0" t="b">
         <v>0</v>
@@ -40754,7 +40754,7 @@
         <v>0</v>
       </c>
       <c r="L939" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M939" s="0" t="b">
         <v>0</v>
@@ -40788,7 +40788,7 @@
         <v>0</v>
       </c>
       <c r="I940" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J940" s="0" t="b">
         <v>0</v>
@@ -40797,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="L940" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M940" s="0" t="b">
         <v>0</v>
@@ -40831,7 +40831,7 @@
         <v>0</v>
       </c>
       <c r="I941" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J941" s="0" t="b">
         <v>0</v>
@@ -40840,7 +40840,7 @@
         <v>0</v>
       </c>
       <c r="L941" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M941" s="0" t="b">
         <v>0</v>
@@ -40874,7 +40874,7 @@
         <v>0</v>
       </c>
       <c r="I942" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J942" s="0" t="b">
         <v>0</v>
@@ -40883,7 +40883,7 @@
         <v>0</v>
       </c>
       <c r="L942" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M942" s="0" t="b">
         <v>0</v>
@@ -40917,7 +40917,7 @@
         <v>0</v>
       </c>
       <c r="I943" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J943" s="0" t="b">
         <v>0</v>
@@ -40926,7 +40926,7 @@
         <v>0</v>
       </c>
       <c r="L943" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M943" s="0" t="b">
         <v>0</v>
